--- a/Code/Results/Cases/Case_2_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9980938518183892</v>
+        <v>1.02325754048051</v>
       </c>
       <c r="D2">
-        <v>1.021150733322411</v>
+        <v>1.033211150923203</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.025404392866959</v>
+        <v>1.041933255036759</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048321917490957</v>
+        <v>1.033649761585882</v>
       </c>
       <c r="J2">
-        <v>1.020331725309665</v>
+        <v>1.028438773386392</v>
       </c>
       <c r="K2">
-        <v>1.032323063804368</v>
+        <v>1.036014153706946</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.036520795610739</v>
+        <v>1.044711369327488</v>
       </c>
       <c r="N2">
-        <v>1.010842795704135</v>
+        <v>1.013554452336197</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001897787963943</v>
+        <v>1.024056269950871</v>
       </c>
       <c r="D3">
-        <v>1.023967070177343</v>
+        <v>1.033813372346365</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.028755122464396</v>
+        <v>1.042673478669354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049329980561701</v>
+        <v>1.033780111734292</v>
       </c>
       <c r="J3">
-        <v>1.022336850725642</v>
+        <v>1.028876685618918</v>
       </c>
       <c r="K3">
-        <v>1.034302203761595</v>
+        <v>1.036425860494977</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.039032835409997</v>
+        <v>1.045262506603683</v>
       </c>
       <c r="N3">
-        <v>1.011503804112267</v>
+        <v>1.013698688352498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004311987705134</v>
+        <v>1.024573448591761</v>
       </c>
       <c r="D4">
-        <v>1.025754770856951</v>
+        <v>1.034203004237257</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.03088404151506</v>
+        <v>1.043152736510115</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049955666944388</v>
+        <v>1.033862755391051</v>
       </c>
       <c r="J4">
-        <v>1.023606031873545</v>
+        <v>1.029159733532211</v>
       </c>
       <c r="K4">
-        <v>1.035551986254034</v>
+        <v>1.036691521863635</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.040623482108225</v>
+        <v>1.04561874623777</v>
       </c>
       <c r="N4">
-        <v>1.011922209361527</v>
+        <v>1.013791909532652</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005315954747598</v>
+        <v>1.02479095190174</v>
       </c>
       <c r="D5">
-        <v>1.02649822358786</v>
+        <v>1.034366792600601</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.031769893323278</v>
+        <v>1.04335428228484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050212432662819</v>
+        <v>1.033897090459359</v>
       </c>
       <c r="J5">
-        <v>1.024132991253361</v>
+        <v>1.029278651202363</v>
       </c>
       <c r="K5">
-        <v>1.036070166107981</v>
+        <v>1.036803027149895</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.041284048923411</v>
+        <v>1.045768415901112</v>
       </c>
       <c r="N5">
-        <v>1.012095930812789</v>
+        <v>1.013831073134036</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00548389192192</v>
+        <v>1.024827476388193</v>
       </c>
       <c r="D6">
-        <v>1.026622583450366</v>
+        <v>1.034394292574931</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.031918102366042</v>
+        <v>1.0433881265025</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050255179581945</v>
+        <v>1.033902831496118</v>
       </c>
       <c r="J6">
-        <v>1.024221087380892</v>
+        <v>1.029298613526551</v>
       </c>
       <c r="K6">
-        <v>1.036156751342434</v>
+        <v>1.036821738852573</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.041394489050244</v>
+        <v>1.045793540562661</v>
       </c>
       <c r="N6">
-        <v>1.012124973298685</v>
+        <v>1.013837647303157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004325445400132</v>
+        <v>1.024576354563921</v>
       </c>
       <c r="D7">
-        <v>1.025764736462755</v>
+        <v>1.034205192838484</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.030895913928567</v>
+        <v>1.043155429318846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049959122385551</v>
+        <v>1.033863215783561</v>
       </c>
       <c r="J7">
-        <v>1.023613098869573</v>
+        <v>1.029161322814945</v>
       </c>
       <c r="K7">
-        <v>1.035558938397988</v>
+        <v>1.036693012506985</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.040632340373034</v>
+        <v>1.045620746500693</v>
       </c>
       <c r="N7">
-        <v>1.01192453911794</v>
+        <v>1.013792432943628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9993893912504023</v>
+        <v>1.023527401904019</v>
       </c>
       <c r="D8">
-        <v>1.022109827120687</v>
+        <v>1.033414682748088</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.026545060893348</v>
+        <v>1.042183357068992</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048668162935902</v>
+        <v>1.033694165783241</v>
       </c>
       <c r="J8">
-        <v>1.021015320807837</v>
+        <v>1.028586831392673</v>
       </c>
       <c r="K8">
-        <v>1.032998409049125</v>
+        <v>1.036153444366914</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.03737707788562</v>
+        <v>1.044897706992932</v>
       </c>
       <c r="N8">
-        <v>1.011068147285832</v>
+        <v>1.013603219908144</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9903139864422787</v>
+        <v>1.021681749069477</v>
       </c>
       <c r="D9">
-        <v>1.015394521790894</v>
+        <v>1.032021439603961</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.018566312195492</v>
+        <v>1.040472707775807</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046185118036428</v>
+        <v>1.033383287891599</v>
       </c>
       <c r="J9">
-        <v>1.016213481220765</v>
+        <v>1.027572183459717</v>
       </c>
       <c r="K9">
-        <v>1.028242675400398</v>
+        <v>1.035197050814366</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.031365178280755</v>
+        <v>1.043620763707908</v>
       </c>
       <c r="N9">
-        <v>1.009485254186874</v>
+        <v>1.013268985997175</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9839864204267177</v>
+        <v>1.020453255374702</v>
       </c>
       <c r="D10">
-        <v>1.01071891392826</v>
+        <v>1.031092549711188</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.013020375570445</v>
+        <v>1.03933392471328</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044383086703329</v>
+        <v>1.033167358497147</v>
       </c>
       <c r="J10">
-        <v>1.012850113636546</v>
+        <v>1.026894269204073</v>
       </c>
       <c r="K10">
-        <v>1.024897294980049</v>
+        <v>1.034555774147882</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.027158456315485</v>
+        <v>1.04276765370544</v>
       </c>
       <c r="N10">
-        <v>1.00837665776351</v>
+        <v>1.013045641007288</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9811751162313919</v>
+        <v>1.019921785933563</v>
       </c>
       <c r="D11">
-        <v>1.00864386788613</v>
+        <v>1.030690340025126</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.010561085082908</v>
+        <v>1.038841236913585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04356639299527</v>
+        <v>1.033071812289958</v>
       </c>
       <c r="J11">
-        <v>1.011352557557414</v>
+        <v>1.026600389620633</v>
       </c>
       <c r="K11">
-        <v>1.023404594015353</v>
+        <v>1.034277239631596</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.025286545733803</v>
+        <v>1.042397839390411</v>
       </c>
       <c r="N11">
-        <v>1.007883087676388</v>
+        <v>1.012948811819041</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9801196290560749</v>
+        <v>1.019724447805681</v>
       </c>
       <c r="D12">
-        <v>1.00786521840185</v>
+        <v>1.030540944268971</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.009638533978635</v>
+        <v>1.038658294879768</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043257420643131</v>
+        <v>1.033036015503644</v>
       </c>
       <c r="J12">
-        <v>1.010789861405529</v>
+        <v>1.026491180148354</v>
       </c>
       <c r="K12">
-        <v>1.022843268781368</v>
+        <v>1.034173652152364</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.024583375626955</v>
+        <v>1.042260413751365</v>
       </c>
       <c r="N12">
-        <v>1.00769763881726</v>
+        <v>1.01291282766309</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9803465520127403</v>
+        <v>1.019766774160247</v>
       </c>
       <c r="D13">
-        <v>1.008032603203958</v>
+        <v>1.030572990006325</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.009836840496998</v>
+        <v>1.038697533629808</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04332395285333</v>
+        <v>1.033043707898576</v>
       </c>
       <c r="J13">
-        <v>1.010910857080179</v>
+        <v>1.026514608170383</v>
       </c>
       <c r="K13">
-        <v>1.022963989821725</v>
+        <v>1.034195877757987</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.024734568512268</v>
+        <v>1.042289894710398</v>
       </c>
       <c r="N13">
-        <v>1.00773751528151</v>
+        <v>1.012920547170767</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9810881017732569</v>
+        <v>1.019905472397469</v>
       </c>
       <c r="D14">
-        <v>1.008579667132324</v>
+        <v>1.030677990856272</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.01048501376621</v>
+        <v>1.038826113546995</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043540968689037</v>
+        <v>1.033068859567112</v>
       </c>
       <c r="J14">
-        <v>1.011306177719852</v>
+        <v>1.026591363334036</v>
       </c>
       <c r="K14">
-        <v>1.023358336271189</v>
+        <v>1.034268679647838</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.025228583542675</v>
+        <v>1.042386480960771</v>
       </c>
       <c r="N14">
-        <v>1.007867802043589</v>
+        <v>1.012945837711591</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9815434893050762</v>
+        <v>1.019990938721208</v>
       </c>
       <c r="D15">
-        <v>1.008915677127942</v>
+        <v>1.030742685778917</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.010883162665783</v>
+        <v>1.03890534444216</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043673930594583</v>
+        <v>1.033084315730838</v>
       </c>
       <c r="J15">
-        <v>1.011548887162201</v>
+        <v>1.026638648202046</v>
       </c>
       <c r="K15">
-        <v>1.023600388430285</v>
+        <v>1.034313518462607</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.025531912090205</v>
+        <v>1.042445983021534</v>
       </c>
       <c r="N15">
-        <v>1.00794779327232</v>
+        <v>1.012961417744937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9841714495060063</v>
+        <v>1.020488537434878</v>
       </c>
       <c r="D16">
-        <v>1.010855539074341</v>
+        <v>1.031119243332685</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.013182340549822</v>
+        <v>1.039366631659267</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044436508683974</v>
+        <v>1.033173656527554</v>
       </c>
       <c r="J16">
-        <v>1.01294861272538</v>
+        <v>1.026913766009495</v>
       </c>
       <c r="K16">
-        <v>1.024995410735611</v>
+        <v>1.034574241625708</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.027281603090681</v>
+        <v>1.042792188533312</v>
       </c>
       <c r="N16">
-        <v>1.008409122327277</v>
+        <v>1.01305206476536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9858004244183233</v>
+        <v>1.020800796722745</v>
       </c>
       <c r="D17">
-        <v>1.012058641705842</v>
+        <v>1.0313554508703</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.014608809326575</v>
+        <v>1.039656096967283</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04490500692137</v>
+        <v>1.033229150165595</v>
       </c>
       <c r="J17">
-        <v>1.013815423870227</v>
+        <v>1.027086250509484</v>
       </c>
       <c r="K17">
-        <v>1.025858491911265</v>
+        <v>1.034737557843372</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.028365451578861</v>
+        <v>1.04300924503735</v>
       </c>
       <c r="N17">
-        <v>1.008694821239159</v>
+        <v>1.013108893611624</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9867437225455401</v>
+        <v>1.020982978137111</v>
       </c>
       <c r="D18">
-        <v>1.012755542070976</v>
+        <v>1.031493227155956</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.015435287387928</v>
+        <v>1.039824976868666</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045174772118977</v>
+        <v>1.033261321064228</v>
       </c>
       <c r="J18">
-        <v>1.01431706286778</v>
+        <v>1.027186825077786</v>
       </c>
       <c r="K18">
-        <v>1.026357671661047</v>
+        <v>1.034832734596681</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.028992802431995</v>
+        <v>1.043135810548276</v>
       </c>
       <c r="N18">
-        <v>1.008860163812993</v>
+        <v>1.013142029372488</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9870642150981748</v>
+        <v>1.021045105017211</v>
       </c>
       <c r="D19">
-        <v>1.012992353473274</v>
+        <v>1.031540205321186</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.015716163302771</v>
+        <v>1.039882567216875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045266165412219</v>
+        <v>1.033272256964554</v>
       </c>
       <c r="J19">
-        <v>1.014487444867788</v>
+        <v>1.027221112816411</v>
       </c>
       <c r="K19">
-        <v>1.026527166773798</v>
+        <v>1.034865173315189</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.029205900543746</v>
+        <v>1.04317895929921</v>
       </c>
       <c r="N19">
-        <v>1.008916323095259</v>
+        <v>1.013153325839082</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9856263635166905</v>
+        <v>1.020767289501035</v>
       </c>
       <c r="D20">
-        <v>1.011930063862581</v>
+        <v>1.031330107978782</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.014456340109301</v>
+        <v>1.039625035959005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044855104745721</v>
+        <v>1.03322321665561</v>
       </c>
       <c r="J20">
-        <v>1.013722834302891</v>
+        <v>1.027067747930193</v>
       </c>
       <c r="K20">
-        <v>1.02576633181295</v>
+        <v>1.034720044116041</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.028249667531162</v>
+        <v>1.04298596104039</v>
       </c>
       <c r="N20">
-        <v>1.008664303561845</v>
+        <v>1.013102797605048</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.980870048505103</v>
+        <v>1.019864627186811</v>
       </c>
       <c r="D21">
-        <v>1.008418790613272</v>
+        <v>1.030647070629205</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.010294396085559</v>
+        <v>1.038788248178131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043477219187221</v>
+        <v>1.033061461485855</v>
       </c>
       <c r="J21">
-        <v>1.011189945407484</v>
+        <v>1.026568762207662</v>
       </c>
       <c r="K21">
-        <v>1.023242402703227</v>
+        <v>1.034247244809752</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.025083327806396</v>
+        <v>1.042358040363266</v>
       </c>
       <c r="N21">
-        <v>1.007829494894555</v>
+        <v>1.012938390756754</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9778142352683465</v>
+        <v>1.019297512418504</v>
       </c>
       <c r="D22">
-        <v>1.006165331502194</v>
+        <v>1.03021763527484</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.007624994050843</v>
+        <v>1.038262498703266</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042578316322403</v>
+        <v>1.032957985741129</v>
       </c>
       <c r="J22">
-        <v>1.009560040505334</v>
+        <v>1.026254744273091</v>
       </c>
       <c r="K22">
-        <v>1.021615633463337</v>
+        <v>1.033949240988709</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.023046896727688</v>
+        <v>1.041962894651605</v>
       </c>
       <c r="N22">
-        <v>1.007292337569523</v>
+        <v>1.012834920707088</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9794405516118193</v>
+        <v>1.019598109846459</v>
       </c>
       <c r="D23">
-        <v>1.007364377687625</v>
+        <v>1.03044528478475</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.009045211016751</v>
+        <v>1.03854117245447</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04305798057901</v>
+        <v>1.033013008025165</v>
       </c>
       <c r="J23">
-        <v>1.010427713581759</v>
+        <v>1.026421237777704</v>
       </c>
       <c r="K23">
-        <v>1.022481878110203</v>
+        <v>1.034107287740324</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.024130874136951</v>
+        <v>1.042172401177815</v>
       </c>
       <c r="N23">
-        <v>1.007578287041349</v>
+        <v>1.012889781557988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9857050352939608</v>
+        <v>1.020782429830735</v>
       </c>
       <c r="D24">
-        <v>1.011988177618961</v>
+        <v>1.031341559339512</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.014525251532355</v>
+        <v>1.039639070969281</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044877664202163</v>
+        <v>1.033225898364023</v>
       </c>
       <c r="J24">
-        <v>1.013764683754279</v>
+        <v>1.0270761085506</v>
       </c>
       <c r="K24">
-        <v>1.025807988082859</v>
+        <v>1.034727958071665</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.028302000293545</v>
+        <v>1.042996482199787</v>
       </c>
       <c r="N24">
-        <v>1.008678097200585</v>
+        <v>1.01310555216374</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9927072646610217</v>
+        <v>1.022158559829213</v>
       </c>
       <c r="D25">
-        <v>1.017164550847699</v>
+        <v>1.032381645583551</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.020667676346491</v>
+        <v>1.040914670038429</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046852381448825</v>
+        <v>1.033465190854522</v>
       </c>
       <c r="J25">
-        <v>1.01748257589371</v>
+        <v>1.027834761228282</v>
       </c>
       <c r="K25">
-        <v>1.02950212708179</v>
+        <v>1.035444956678367</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.032953406820105</v>
+        <v>1.043951211649241</v>
       </c>
       <c r="N25">
-        <v>1.009903586259087</v>
+        <v>1.013355487481978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02325754048051</v>
+        <v>0.9980938518183894</v>
       </c>
       <c r="D2">
-        <v>1.033211150923203</v>
+        <v>1.021150733322411</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.041933255036759</v>
+        <v>1.025404392866959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033649761585882</v>
+        <v>1.048321917490958</v>
       </c>
       <c r="J2">
-        <v>1.028438773386392</v>
+        <v>1.020331725309666</v>
       </c>
       <c r="K2">
-        <v>1.036014153706946</v>
+        <v>1.032323063804369</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.044711369327488</v>
+        <v>1.036520795610739</v>
       </c>
       <c r="N2">
-        <v>1.013554452336197</v>
+        <v>1.010842795704135</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024056269950871</v>
+        <v>1.001897787963943</v>
       </c>
       <c r="D3">
-        <v>1.033813372346365</v>
+        <v>1.023967070177343</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.042673478669354</v>
+        <v>1.028755122464395</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033780111734292</v>
+        <v>1.049329980561701</v>
       </c>
       <c r="J3">
-        <v>1.028876685618918</v>
+        <v>1.022336850725641</v>
       </c>
       <c r="K3">
-        <v>1.036425860494977</v>
+        <v>1.034302203761595</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.045262506603683</v>
+        <v>1.039032835409997</v>
       </c>
       <c r="N3">
-        <v>1.013698688352498</v>
+        <v>1.011503804112267</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024573448591761</v>
+        <v>1.004311987705135</v>
       </c>
       <c r="D4">
-        <v>1.034203004237257</v>
+        <v>1.025754770856952</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.043152736510115</v>
+        <v>1.030884041515061</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033862755391051</v>
+        <v>1.049955666944389</v>
       </c>
       <c r="J4">
-        <v>1.029159733532211</v>
+        <v>1.023606031873546</v>
       </c>
       <c r="K4">
-        <v>1.036691521863635</v>
+        <v>1.035551986254035</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.04561874623777</v>
+        <v>1.040623482108226</v>
       </c>
       <c r="N4">
-        <v>1.013791909532652</v>
+        <v>1.011922209361527</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02479095190174</v>
+        <v>1.005315954747598</v>
       </c>
       <c r="D5">
-        <v>1.034366792600601</v>
+        <v>1.02649822358786</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.04335428228484</v>
+        <v>1.031769893323278</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033897090459359</v>
+        <v>1.050212432662818</v>
       </c>
       <c r="J5">
-        <v>1.029278651202363</v>
+        <v>1.024132991253361</v>
       </c>
       <c r="K5">
-        <v>1.036803027149895</v>
+        <v>1.036070166107981</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.045768415901112</v>
+        <v>1.041284048923411</v>
       </c>
       <c r="N5">
-        <v>1.013831073134036</v>
+        <v>1.012095930812789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024827476388193</v>
+        <v>1.00548389192192</v>
       </c>
       <c r="D6">
-        <v>1.034394292574931</v>
+        <v>1.026622583450366</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.0433881265025</v>
+        <v>1.031918102366042</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033902831496118</v>
+        <v>1.050255179581944</v>
       </c>
       <c r="J6">
-        <v>1.029298613526551</v>
+        <v>1.024221087380892</v>
       </c>
       <c r="K6">
-        <v>1.036821738852573</v>
+        <v>1.036156751342434</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.045793540562661</v>
+        <v>1.041394489050244</v>
       </c>
       <c r="N6">
-        <v>1.013837647303157</v>
+        <v>1.012124973298685</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024576354563921</v>
+        <v>1.004325445400133</v>
       </c>
       <c r="D7">
-        <v>1.034205192838484</v>
+        <v>1.025764736462756</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.043155429318846</v>
+        <v>1.030895913928569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033863215783561</v>
+        <v>1.049959122385552</v>
       </c>
       <c r="J7">
-        <v>1.029161322814945</v>
+        <v>1.023613098869574</v>
       </c>
       <c r="K7">
-        <v>1.036693012506985</v>
+        <v>1.035558938397989</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.045620746500693</v>
+        <v>1.040632340373035</v>
       </c>
       <c r="N7">
-        <v>1.013792432943628</v>
+        <v>1.01192453911794</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023527401904019</v>
+        <v>0.9993893912504025</v>
       </c>
       <c r="D8">
-        <v>1.033414682748088</v>
+        <v>1.022109827120687</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.042183357068992</v>
+        <v>1.026545060893348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033694165783241</v>
+        <v>1.048668162935902</v>
       </c>
       <c r="J8">
-        <v>1.028586831392673</v>
+        <v>1.021015320807837</v>
       </c>
       <c r="K8">
-        <v>1.036153444366914</v>
+        <v>1.032998409049125</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.044897706992932</v>
+        <v>1.03737707788562</v>
       </c>
       <c r="N8">
-        <v>1.013603219908144</v>
+        <v>1.011068147285832</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021681749069477</v>
+        <v>0.990313986442279</v>
       </c>
       <c r="D9">
-        <v>1.032021439603961</v>
+        <v>1.015394521790895</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.040472707775807</v>
+        <v>1.018566312195492</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033383287891599</v>
+        <v>1.046185118036428</v>
       </c>
       <c r="J9">
-        <v>1.027572183459717</v>
+        <v>1.016213481220765</v>
       </c>
       <c r="K9">
-        <v>1.035197050814366</v>
+        <v>1.028242675400398</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.043620763707908</v>
+        <v>1.031365178280756</v>
       </c>
       <c r="N9">
-        <v>1.013268985997175</v>
+        <v>1.009485254186874</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020453255374702</v>
+        <v>0.9839864204267177</v>
       </c>
       <c r="D10">
-        <v>1.031092549711188</v>
+        <v>1.010718913928259</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.03933392471328</v>
+        <v>1.013020375570445</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033167358497147</v>
+        <v>1.044383086703329</v>
       </c>
       <c r="J10">
-        <v>1.026894269204073</v>
+        <v>1.012850113636545</v>
       </c>
       <c r="K10">
-        <v>1.034555774147882</v>
+        <v>1.024897294980049</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.04276765370544</v>
+        <v>1.027158456315485</v>
       </c>
       <c r="N10">
-        <v>1.013045641007288</v>
+        <v>1.008376657763509</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019921785933563</v>
+        <v>0.9811751162313913</v>
       </c>
       <c r="D11">
-        <v>1.030690340025126</v>
+        <v>1.008643867886129</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.038841236913585</v>
+        <v>1.010561085082907</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033071812289958</v>
+        <v>1.043566392995269</v>
       </c>
       <c r="J11">
-        <v>1.026600389620633</v>
+        <v>1.011352557557413</v>
       </c>
       <c r="K11">
-        <v>1.034277239631596</v>
+        <v>1.023404594015353</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.042397839390411</v>
+        <v>1.025286545733802</v>
       </c>
       <c r="N11">
-        <v>1.012948811819041</v>
+        <v>1.007883087676388</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019724447805681</v>
+        <v>0.9801196290560756</v>
       </c>
       <c r="D12">
-        <v>1.030540944268971</v>
+        <v>1.00786521840185</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.038658294879768</v>
+        <v>1.009638533978635</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033036015503644</v>
+        <v>1.043257420643131</v>
       </c>
       <c r="J12">
-        <v>1.026491180148354</v>
+        <v>1.01078986140553</v>
       </c>
       <c r="K12">
-        <v>1.034173652152364</v>
+        <v>1.022843268781368</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.042260413751365</v>
+        <v>1.024583375626955</v>
       </c>
       <c r="N12">
-        <v>1.01291282766309</v>
+        <v>1.007697638817261</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019766774160247</v>
+        <v>0.9803465520127417</v>
       </c>
       <c r="D13">
-        <v>1.030572990006325</v>
+        <v>1.008032603203959</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.038697533629808</v>
+        <v>1.009836840496999</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033043707898576</v>
+        <v>1.04332395285333</v>
       </c>
       <c r="J13">
-        <v>1.026514608170383</v>
+        <v>1.01091085708018</v>
       </c>
       <c r="K13">
-        <v>1.034195877757987</v>
+        <v>1.022963989821726</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.042289894710398</v>
+        <v>1.024734568512269</v>
       </c>
       <c r="N13">
-        <v>1.012920547170767</v>
+        <v>1.00773751528151</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019905472397469</v>
+        <v>0.9810881017732567</v>
       </c>
       <c r="D14">
-        <v>1.030677990856272</v>
+        <v>1.008579667132324</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.038826113546995</v>
+        <v>1.01048501376621</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033068859567112</v>
+        <v>1.043540968689036</v>
       </c>
       <c r="J14">
-        <v>1.026591363334036</v>
+        <v>1.011306177719852</v>
       </c>
       <c r="K14">
-        <v>1.034268679647838</v>
+        <v>1.023358336271189</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.042386480960771</v>
+        <v>1.025228583542675</v>
       </c>
       <c r="N14">
-        <v>1.012945837711591</v>
+        <v>1.007867802043589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019990938721208</v>
+        <v>0.9815434893050771</v>
       </c>
       <c r="D15">
-        <v>1.030742685778917</v>
+        <v>1.008915677127943</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.03890534444216</v>
+        <v>1.010883162665784</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033084315730838</v>
+        <v>1.043673930594583</v>
       </c>
       <c r="J15">
-        <v>1.026638648202046</v>
+        <v>1.011548887162202</v>
       </c>
       <c r="K15">
-        <v>1.034313518462607</v>
+        <v>1.023600388430286</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.042445983021534</v>
+        <v>1.025531912090206</v>
       </c>
       <c r="N15">
-        <v>1.012961417744937</v>
+        <v>1.00794779327232</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020488537434878</v>
+        <v>0.9841714495060064</v>
       </c>
       <c r="D16">
-        <v>1.031119243332685</v>
+        <v>1.010855539074341</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.039366631659267</v>
+        <v>1.013182340549823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033173656527554</v>
+        <v>1.044436508683974</v>
       </c>
       <c r="J16">
-        <v>1.026913766009495</v>
+        <v>1.01294861272538</v>
       </c>
       <c r="K16">
-        <v>1.034574241625708</v>
+        <v>1.024995410735611</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.042792188533312</v>
+        <v>1.027281603090681</v>
       </c>
       <c r="N16">
-        <v>1.01305206476536</v>
+        <v>1.008409122327277</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020800796722745</v>
+        <v>0.9858004244183228</v>
       </c>
       <c r="D17">
-        <v>1.0313554508703</v>
+        <v>1.012058641705842</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.039656096967283</v>
+        <v>1.014608809326574</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033229150165595</v>
+        <v>1.04490500692137</v>
       </c>
       <c r="J17">
-        <v>1.027086250509484</v>
+        <v>1.013815423870227</v>
       </c>
       <c r="K17">
-        <v>1.034737557843372</v>
+        <v>1.025858491911265</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.04300924503735</v>
+        <v>1.02836545157886</v>
       </c>
       <c r="N17">
-        <v>1.013108893611624</v>
+        <v>1.008694821239159</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020982978137111</v>
+        <v>0.98674372254554</v>
       </c>
       <c r="D18">
-        <v>1.031493227155956</v>
+        <v>1.012755542070976</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.039824976868666</v>
+        <v>1.015435287387928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033261321064228</v>
+        <v>1.045174772118977</v>
       </c>
       <c r="J18">
-        <v>1.027186825077786</v>
+        <v>1.01431706286778</v>
       </c>
       <c r="K18">
-        <v>1.034832734596681</v>
+        <v>1.026357671661047</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.043135810548276</v>
+        <v>1.028992802431995</v>
       </c>
       <c r="N18">
-        <v>1.013142029372488</v>
+        <v>1.008860163812993</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021045105017211</v>
+        <v>0.9870642150981754</v>
       </c>
       <c r="D19">
-        <v>1.031540205321186</v>
+        <v>1.012992353473275</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.039882567216875</v>
+        <v>1.015716163302772</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033272256964554</v>
+        <v>1.045266165412219</v>
       </c>
       <c r="J19">
-        <v>1.027221112816411</v>
+        <v>1.014487444867789</v>
       </c>
       <c r="K19">
-        <v>1.034865173315189</v>
+        <v>1.026527166773798</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.04317895929921</v>
+        <v>1.029205900543746</v>
       </c>
       <c r="N19">
-        <v>1.013153325839082</v>
+        <v>1.00891632309526</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020767289501035</v>
+        <v>0.9856263635166908</v>
       </c>
       <c r="D20">
-        <v>1.031330107978782</v>
+        <v>1.011930063862581</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.039625035959005</v>
+        <v>1.014456340109302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03322321665561</v>
+        <v>1.044855104745721</v>
       </c>
       <c r="J20">
-        <v>1.027067747930193</v>
+        <v>1.013722834302892</v>
       </c>
       <c r="K20">
-        <v>1.034720044116041</v>
+        <v>1.025766331812951</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.04298596104039</v>
+        <v>1.028249667531163</v>
       </c>
       <c r="N20">
-        <v>1.013102797605048</v>
+        <v>1.008664303561845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019864627186811</v>
+        <v>0.9808700485051032</v>
       </c>
       <c r="D21">
-        <v>1.030647070629205</v>
+        <v>1.008418790613272</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.038788248178131</v>
+        <v>1.010294396085559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033061461485855</v>
+        <v>1.043477219187222</v>
       </c>
       <c r="J21">
-        <v>1.026568762207662</v>
+        <v>1.011189945407484</v>
       </c>
       <c r="K21">
-        <v>1.034247244809752</v>
+        <v>1.023242402703227</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.042358040363266</v>
+        <v>1.025083327806397</v>
       </c>
       <c r="N21">
-        <v>1.012938390756754</v>
+        <v>1.007829494894555</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019297512418504</v>
+        <v>0.9778142352683468</v>
       </c>
       <c r="D22">
-        <v>1.03021763527484</v>
+        <v>1.006165331502194</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.038262498703266</v>
+        <v>1.007624994050843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032957985741129</v>
+        <v>1.042578316322403</v>
       </c>
       <c r="J22">
-        <v>1.026254744273091</v>
+        <v>1.009560040505334</v>
       </c>
       <c r="K22">
-        <v>1.033949240988709</v>
+        <v>1.021615633463337</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.041962894651605</v>
+        <v>1.023046896727688</v>
       </c>
       <c r="N22">
-        <v>1.012834920707088</v>
+        <v>1.007292337569523</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019598109846459</v>
+        <v>0.979440551611819</v>
       </c>
       <c r="D23">
-        <v>1.03044528478475</v>
+        <v>1.007364377687625</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.03854117245447</v>
+        <v>1.009045211016751</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033013008025165</v>
+        <v>1.04305798057901</v>
       </c>
       <c r="J23">
-        <v>1.026421237777704</v>
+        <v>1.010427713581759</v>
       </c>
       <c r="K23">
-        <v>1.034107287740324</v>
+        <v>1.022481878110203</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.042172401177815</v>
+        <v>1.024130874136951</v>
       </c>
       <c r="N23">
-        <v>1.012889781557988</v>
+        <v>1.007578287041349</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020782429830735</v>
+        <v>0.9857050352939609</v>
       </c>
       <c r="D24">
-        <v>1.031341559339512</v>
+        <v>1.011988177618961</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.039639070969281</v>
+        <v>1.014525251532356</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033225898364023</v>
+        <v>1.044877664202163</v>
       </c>
       <c r="J24">
-        <v>1.0270761085506</v>
+        <v>1.013764683754279</v>
       </c>
       <c r="K24">
-        <v>1.034727958071665</v>
+        <v>1.025807988082859</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.042996482199787</v>
+        <v>1.028302000293545</v>
       </c>
       <c r="N24">
-        <v>1.01310555216374</v>
+        <v>1.008678097200585</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022158559829213</v>
+        <v>0.9927072646610218</v>
       </c>
       <c r="D25">
-        <v>1.032381645583551</v>
+        <v>1.017164550847699</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.040914670038429</v>
+        <v>1.02066767634649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033465190854522</v>
+        <v>1.046852381448825</v>
       </c>
       <c r="J25">
-        <v>1.027834761228282</v>
+        <v>1.01748257589371</v>
       </c>
       <c r="K25">
-        <v>1.035444956678367</v>
+        <v>1.02950212708179</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.043951211649241</v>
+        <v>1.032953406820104</v>
       </c>
       <c r="N25">
-        <v>1.013355487481978</v>
+        <v>1.009903586259087</v>
       </c>
     </row>
   </sheetData>
